--- a/src/main/resources/template/excel/export/CashCheckReport.xlsx
+++ b/src/main/resources/template/excel/export/CashCheckReport.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="21330" windowHeight="4845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:H3"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>zhangq</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,12 +29,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>YSCGD:
-jx:area(lastCell="H2")</t>
+          <t>jx:area(lastCell="H3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -45,8 +41,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="H2")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="H3")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +50,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>收银对账</t>
+  </si>
   <si>
     <t>店铺编号</t>
   </si>
@@ -100,18 +98,22 @@
   </si>
   <si>
     <t>${obj.saleAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${obj.returnAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,26 +122,371 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,27 +494,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -457,77 +1109,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="8" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="30" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/CashCheckReport.xlsx
+++ b/src/main/resources/template/excel/export/CashCheckReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="H4")</t>
+          <t>jx:area(lastCell="H3")</t>
         </r>
       </text>
     </comment>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="H3")</t>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>收银对账</t>
   </si>
@@ -105,30 +107,12 @@
   </si>
   <si>
     <t>${obj.returnAmount}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,6 +126,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -149,22 +134,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -210,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,83 +208,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -315,7 +233,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -350,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,24 +589,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>

--- a/src/main/resources/template/excel/export/CashCheckReport.xlsx
+++ b/src/main/resources/template/excel/export/CashCheckReport.xlsx
@@ -113,6 +113,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +211,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,7 +519,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,13 +583,13 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -595,7 +599,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>